--- a/VersionRecords/Version 5.3.6.1 20170330/版本Bug和特性计划及评审表v5.3.6.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.6.1 20170330/版本Bug和特性计划及评审表v5.3.6.1_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>No</t>
   </si>
@@ -366,6 +366,13 @@
   </si>
   <si>
     <t>fangtai</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨菲</t>
+    <rPh sb="0" eb="1">
+      <t>mo'fei</t>
+    </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1419,7 +1426,7 @@
   <dimension ref="A1:X159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1741,12 +1748,20 @@
         <v>71</v>
       </c>
       <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
+      <c r="I6" s="58" t="s">
+        <v>71</v>
+      </c>
       <c r="J6" s="59"/>
       <c r="K6" s="58"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
+      <c r="L6" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>73</v>
+      </c>
       <c r="O6" s="58"/>
       <c r="P6" s="74"/>
       <c r="Q6" s="59"/>

--- a/VersionRecords/Version 5.3.6.1 20170330/版本Bug和特性计划及评审表v5.3.6.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.6.1 20170330/版本Bug和特性计划及评审表v5.3.6.1_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -375,12 +375,54 @@
     </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>BS内新增隐藏原因的选择标签</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源详情页，待审核图片也应有蓝色横条样式。</t>
+  </si>
+  <si>
+    <t>partnerPC</t>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨菲</t>
+    <rPh sb="0" eb="1">
+      <t>mo'fe</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3072</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2995</t>
+  </si>
+  <si>
+    <t>DV-3070</t>
+  </si>
+  <si>
+    <t>TOPT-1147</t>
+  </si>
+  <si>
+    <t>DV-2729</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -550,6 +592,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -607,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -750,8 +815,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,8 +901,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,9 +1140,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,8 +1167,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="12"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1068,6 +1201,7 @@
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1425,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1509,7 +1643,7 @@
       <c r="R1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="90" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="50" t="s">
@@ -1551,7 +1685,9 @@
       <c r="I2" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="59">
+        <v>42822</v>
+      </c>
       <c r="K2" s="58"/>
       <c r="L2" s="58" t="s">
         <v>84</v>
@@ -1565,9 +1701,13 @@
       <c r="O2" s="58"/>
       <c r="P2" s="74"/>
       <c r="Q2" s="59"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="56"/>
+      <c r="R2" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="88"/>
       <c r="U2" s="56"/>
       <c r="V2" s="64"/>
       <c r="W2" s="77"/>
@@ -1590,7 +1730,7 @@
         <v>70</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>74</v>
@@ -1599,7 +1739,9 @@
       <c r="I3" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="59"/>
+      <c r="J3" s="59">
+        <v>42822</v>
+      </c>
       <c r="K3" s="58"/>
       <c r="L3" s="74" t="s">
         <v>81</v>
@@ -1613,13 +1755,13 @@
       <c r="O3" s="58"/>
       <c r="P3" s="74"/>
       <c r="Q3" s="59"/>
-      <c r="R3" s="74" t="s">
+      <c r="R3" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="78" t="s">
+      <c r="S3" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="56"/>
+      <c r="T3" s="88"/>
       <c r="U3" s="56"/>
       <c r="V3" s="64"/>
       <c r="W3" s="76"/>
@@ -1651,7 +1793,9 @@
       <c r="I4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="59"/>
+      <c r="J4" s="59">
+        <v>42822</v>
+      </c>
       <c r="K4" s="58"/>
       <c r="L4" s="74" t="s">
         <v>81</v>
@@ -1665,13 +1809,13 @@
       <c r="O4" s="58"/>
       <c r="P4" s="74"/>
       <c r="Q4" s="59"/>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="65"/>
+      <c r="T4" s="89"/>
       <c r="U4" s="65"/>
       <c r="V4" s="64"/>
       <c r="W4" s="76"/>
@@ -1703,7 +1847,9 @@
       <c r="I5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="59">
+        <v>42822</v>
+      </c>
       <c r="K5" s="58"/>
       <c r="L5" s="74" t="s">
         <v>86</v>
@@ -1717,9 +1863,13 @@
       <c r="O5" s="58"/>
       <c r="P5" s="74"/>
       <c r="Q5" s="59"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="56"/>
+      <c r="R5" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="88"/>
       <c r="U5" s="56"/>
       <c r="V5" s="64"/>
       <c r="W5" s="76"/>
@@ -1751,7 +1901,9 @@
       <c r="I6" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="59"/>
+      <c r="J6" s="59">
+        <v>42822</v>
+      </c>
       <c r="K6" s="58"/>
       <c r="L6" s="74" t="s">
         <v>89</v>
@@ -1765,60 +1917,120 @@
       <c r="O6" s="58"/>
       <c r="P6" s="74"/>
       <c r="Q6" s="59"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="56"/>
+      <c r="R6" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" s="88"/>
       <c r="U6" s="56"/>
       <c r="V6" s="64"/>
       <c r="W6" s="76"/>
       <c r="X6" s="69"/>
     </row>
     <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>71</v>
+      </c>
       <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="I7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="59">
+        <v>42822</v>
+      </c>
       <c r="K7" s="63"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="L7" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>73</v>
+      </c>
       <c r="O7" s="58"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
+      <c r="R7" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="88"/>
       <c r="U7" s="56"/>
       <c r="V7" s="56"/>
       <c r="W7" s="57"/>
     </row>
     <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="A8" s="75">
+        <v>7</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>71</v>
+      </c>
       <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="I8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="59">
+        <v>42822</v>
+      </c>
       <c r="K8" s="63"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
+      <c r="L8" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>73</v>
+      </c>
       <c r="O8" s="58"/>
       <c r="P8" s="56"/>
       <c r="Q8" s="59"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
+      <c r="R8" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="88"/>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
       <c r="W8" s="57"/>
@@ -5489,6 +5701,9 @@
   <hyperlinks>
     <hyperlink ref="S3" r:id="rId1"/>
     <hyperlink ref="S4" r:id="rId2"/>
+    <hyperlink ref="S8" r:id="rId3"/>
+    <hyperlink ref="S7" r:id="rId4"/>
+    <hyperlink ref="S5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5666,19 +5881,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5716,8 +5931,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5729,8 +5944,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5742,8 +5957,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5755,8 +5970,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5768,8 +5983,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5781,8 +5996,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5794,8 +6009,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5807,8 +6022,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5869,36 +6084,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6183,36 +6398,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6497,36 +6712,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6813,36 +7028,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
